--- a/public/report/PPD.xlsx
+++ b/public/report/PPD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\golang\src\github.com\bbliong\sim-bmm\public\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DB005D-78B5-464B-8D4B-A452CD7E9AB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818636B0-F1C1-46B2-B995-7E3DEC1CD9A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{BED4B04D-0F2E-4E7E-959B-D54B88BD8D2F}"/>
+    <workbookView xWindow="-16050" yWindow="1995" windowWidth="15375" windowHeight="7995" xr2:uid="{BED4B04D-0F2E-4E7E-959B-D54B88BD8D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="PPD" sheetId="1" r:id="rId1"/>
@@ -182,15 +182,6 @@
     <t>Controller</t>
   </si>
   <si>
-    <t>(KADIV…..)</t>
-  </si>
-  <si>
-    <t>(MANAJER)</t>
-  </si>
-  <si>
-    <t>(JABATAN)</t>
-  </si>
-  <si>
     <t>Dibukukan</t>
   </si>
   <si>
@@ -216,20 +207,27 @@
   </si>
   <si>
     <t>: 1.01.02 PAUD</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>KADIV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* \-_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,24 +330,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -401,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -586,37 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -658,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -712,7 +661,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -732,46 +680,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -781,10 +690,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -805,94 +714,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,23 +749,107 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -928,53 +857,119 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -982,107 +977,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1452,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1A839A-149C-41E3-91BF-5EAFCA9496E6}">
   <dimension ref="B1:W47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,11 +1384,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="165"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1505,70 +1407,70 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="2:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="167"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="171" t="s">
+      <c r="B2" s="143"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="173"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="149"/>
     </row>
     <row r="3" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="174" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="176"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="152"/>
     </row>
     <row r="4" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="4"/>
       <c r="V4" s="5"/>
     </row>
     <row r="5" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="169"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1589,14 +1491,14 @@
     <row r="6" spans="2:23" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
@@ -1614,14 +1516,14 @@
       <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="N8" s="14"/>
@@ -1642,14 +1544,14 @@
       <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="17"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -1667,14 +1569,14 @@
       <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="177"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="14"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -1739,13 +1641,13 @@
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
       <c r="G13" s="21" t="s">
         <v>10</v>
       </c>
@@ -1772,13 +1674,13 @@
       <c r="W13" s="14"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
       <c r="G14" s="21" t="s">
         <v>10</v>
       </c>
@@ -1816,15 +1718,15 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="178" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" s="178"/>
-      <c r="P15" s="178" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="178"/>
+      <c r="N15" s="157" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="157"/>
       <c r="S15" s="29"/>
       <c r="T15" s="29"/>
       <c r="U15" s="29"/>
@@ -1854,385 +1756,385 @@
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="145" t="s">
+      <c r="B17" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="35"/>
       <c r="H17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="37"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="140"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="149"/>
-      <c r="U18" s="149"/>
-      <c r="V18" s="150"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="129"/>
+      <c r="V18" s="130"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="44"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="152"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="132"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="50"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="69"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="33" t="s">
+      <c r="F21" s="67"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="16"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="121"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="53"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="123"/>
     </row>
     <row r="23" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="156"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="157"/>
-      <c r="T23" s="157"/>
-      <c r="U23" s="157"/>
-      <c r="V23" s="158"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="123"/>
     </row>
     <row r="24" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="159" t="s">
+      <c r="B24" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="156"/>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="138"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="162" t="s">
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="123"/>
+    </row>
+    <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="138"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="123"/>
     </row>
     <row r="26" spans="2:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="139"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="142"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="137"/>
-      <c r="V26" s="138"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="123"/>
     </row>
     <row r="27" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="139"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="138"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="123"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="63"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="123"/>
     </row>
     <row r="29" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="125"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="14" t="s">
+      <c r="B29" s="115"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="S29" s="14"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="131"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="119"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="67"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="158"/>
+      <c r="T30" s="158"/>
+      <c r="U30" s="158"/>
+      <c r="V30" s="159"/>
     </row>
     <row r="31" spans="2:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="134"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="16"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="158"/>
+      <c r="T31" s="158"/>
+      <c r="U31" s="158"/>
+      <c r="V31" s="159"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
@@ -2248,112 +2150,112 @@
       <c r="V32" s="31"/>
     </row>
     <row r="33" spans="2:22" ht="1.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
     </row>
     <row r="34" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="119" t="s">
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="121"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="110"/>
     </row>
     <row r="35" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="D35" s="122" t="s">
+      <c r="C35" s="112"/>
+      <c r="D35" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="122" t="s">
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="124"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="122" t="s">
+      <c r="I35" s="113"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="L35" s="124"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="122" t="s">
+      <c r="L35" s="113"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="122" t="s">
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="112"/>
+      <c r="T35" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="U35" s="124"/>
-      <c r="V35" s="123"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="112"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="73"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="53"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="22"/>
@@ -2361,22 +2263,22 @@
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
-      <c r="G37" s="74"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="22"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="74"/>
+      <c r="J37" s="54"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
-      <c r="M37" s="74"/>
+      <c r="M37" s="54"/>
       <c r="N37" s="22"/>
       <c r="O37" s="23"/>
-      <c r="P37" s="74"/>
+      <c r="P37" s="54"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="74"/>
+      <c r="S37" s="54"/>
       <c r="T37" s="22"/>
       <c r="U37" s="23"/>
-      <c r="V37" s="74"/>
+      <c r="V37" s="54"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="22"/>
@@ -2384,306 +2286,299 @@
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
-      <c r="G38" s="74"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="74"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
-      <c r="M38" s="74"/>
+      <c r="M38" s="54"/>
       <c r="N38" s="22"/>
       <c r="O38" s="23"/>
-      <c r="P38" s="74"/>
+      <c r="P38" s="54"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="23"/>
-      <c r="S38" s="74"/>
+      <c r="S38" s="54"/>
       <c r="T38" s="22"/>
       <c r="U38" s="23"/>
-      <c r="V38" s="74"/>
+      <c r="V38" s="54"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="77"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="76"/>
-      <c r="V39" s="77"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="57"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="113" t="s">
+      <c r="C40" s="103"/>
+      <c r="D40" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="113" t="s">
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="I40" s="115"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="113" t="s">
+      <c r="I40" s="104"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="115"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="104" t="s">
+      <c r="L40" s="104"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="105"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="104" t="s">
+      <c r="O40" s="94"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="R40" s="105"/>
-      <c r="S40" s="106"/>
-      <c r="T40" s="104" t="s">
+      <c r="R40" s="94"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="U40" s="105"/>
-      <c r="V40" s="106"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="95"/>
     </row>
     <row r="41" spans="2:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="108"/>
-      <c r="D41" s="107" t="s">
+      <c r="C41" s="97"/>
+      <c r="D41" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="107" t="s">
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="109"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="107" t="s">
+      <c r="I41" s="98"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="L41" s="109"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="110" t="s">
+      <c r="L41" s="98"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41" s="100"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="R41" s="100"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="U41" s="100"/>
+      <c r="V41" s="101"/>
+    </row>
+    <row r="42" spans="2:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="O41" s="111"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="110" t="s">
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="77"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="R41" s="111"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="110" t="s">
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="U41" s="111"/>
-      <c r="V41" s="112"/>
-    </row>
-    <row r="42" spans="2:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="89" t="s">
+      <c r="R43" s="76"/>
+      <c r="S43" s="76"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="77"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="88"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="92"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="88"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="96"/>
-      <c r="V44" s="97"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="86"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="99"/>
-      <c r="T45" s="99"/>
-      <c r="U45" s="99"/>
-      <c r="V45" s="100"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="89"/>
     </row>
     <row r="46" spans="2:22" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="75"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="102"/>
-      <c r="M46" s="102"/>
-      <c r="N46" s="102"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="102"/>
-      <c r="S46" s="102"/>
-      <c r="T46" s="102"/>
-      <c r="U46" s="102"/>
-      <c r="V46" s="103"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="91"/>
+      <c r="R46" s="91"/>
+      <c r="S46" s="91"/>
+      <c r="T46" s="91"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="92"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="79"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="88"/>
+      <c r="B47" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="58">
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
     <mergeCell ref="B1:F5"/>
     <mergeCell ref="G2:V2"/>
     <mergeCell ref="G3:V3"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C8:J8"/>
-    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="I17:U17"/>
     <mergeCell ref="J18:V19"/>
     <mergeCell ref="B22:F23"/>
-    <mergeCell ref="J23:Q25"/>
-    <mergeCell ref="S23:V23"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="T24:V24"/>
     <mergeCell ref="B25:F25"/>
+    <mergeCell ref="I17:V17"/>
     <mergeCell ref="F32:I32"/>
-    <mergeCell ref="T25:V25"/>
     <mergeCell ref="B26:F28"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="T27:V27"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="I29:M29"/>
     <mergeCell ref="T29:V29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="K21:V28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:V31"/>
     <mergeCell ref="B34:M34"/>
     <mergeCell ref="N34:V34"/>
     <mergeCell ref="B35:C35"/>
